--- a/Ganadería/17.16.xlsx
+++ b/Ganadería/17.16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ganadería\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{116767B3-928E-4859-89A1-27465BF8EFE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96363DD2-902B-41CF-9218-EA5B005AA6B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3810" windowWidth="14340" windowHeight="495" xr2:uid="{347ADD30-D461-48A0-AE03-F3D2924594AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{347ADD30-D461-48A0-AE03-F3D2924594AA}"/>
   </bookViews>
   <sheets>
     <sheet name="TOTAL" sheetId="1" r:id="rId1"/>
@@ -239,7 +239,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -272,14 +272,14 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -295,7 +295,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A49FA3C4-29AF-4928-A176-74FF92D048EA}" name="distribucion_destino_terneras_macho_en_lecherias" displayName="distribucion_destino_terneras_macho_en_lecherias" ref="A1:K165" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A49FA3C4-29AF-4928-A176-74FF92D048EA}" name="Distribucion_destino_terneras_macho_en_lecherias" displayName="Distribucion_destino_terneras_macho_en_lecherias" ref="A1:K165" totalsRowShown="0">
   <autoFilter ref="A1:K165" xr:uid="{1D60D67B-BBA0-458E-92CA-24694C355BC9}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{A1349E60-0AB6-48DF-A025-270C686F26C6}" name="Cod_Region"/>
@@ -614,7 +614,7 @@
   <dimension ref="A1:K165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K165"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
